--- a/excel/espera_replicas.xlsx
+++ b/excel/espera_replicas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.833540588703111</v>
+        <v>6.323581620506554</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,287 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.872136169101345</v>
+        <v>9.333954869612317</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11.33084121844957</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.858045540552105</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11.57270676235536</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11.72285538953901</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>15.35909880269589</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9.931392308191311</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>14.03656296691095</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10.39217245811488</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8.591082865564925</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10.11529649333897</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>12.65419406807993</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7.823648739521872</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17.80106772958014</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8.54946993527685</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10.80154062154243</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>19.33198482446645</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>27.45146812141527</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10.48901851287436</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>11.29213455214468</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>8.341144716105546</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>13.59621163732526</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>12.00478990916075</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>10.77720106016681</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>11.54982432015628</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>7.847639953575903</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>11.34089612666693</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>8.849177412577673</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>16.43478490860409</v>
       </c>
     </row>
   </sheetData>
